--- a/src/main/resources/Operation.xlsx
+++ b/src/main/resources/Operation.xlsx
@@ -83,14 +83,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -445,7 +445,7 @@
     <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
